--- a/storage/toledo-provider-signatures/pcp_signature_file_for_clh.xlsx
+++ b/storage/toledo-provider-signatures/pcp_signature_file_for_clh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michalis/Code/Antonis/cpm-web/storage/toledo-provider-signatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1016ED43-91E3-0A43-84A3-63AEF80E991C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC980D8-7E7A-D040-9113-F9E13D0BB44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1800" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +574,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -632,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -679,6 +685,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2751,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G44"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2777,7 +2784,7 @@
       <c r="C1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="18" t="s">
         <v>157</v>
       </c>
       <c r="E1" t="s">
